--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N2">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O2">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P2">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q2">
-        <v>717.9109375130134</v>
+        <v>3800.885449780933</v>
       </c>
       <c r="R2">
-        <v>717.9109375130134</v>
+        <v>34207.9690480284</v>
       </c>
       <c r="S2">
-        <v>0.0003258373415903478</v>
+        <v>0.001283077274342457</v>
       </c>
       <c r="T2">
-        <v>0.0003258373415903478</v>
+        <v>0.001283077274342457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N3">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O3">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P3">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q3">
-        <v>2.800747652106934</v>
+        <v>10.88246129480156</v>
       </c>
       <c r="R3">
-        <v>2.800747652106934</v>
+        <v>97.942151653214</v>
       </c>
       <c r="S3">
-        <v>1.27117184283237E-06</v>
+        <v>3.67362788506979E-06</v>
       </c>
       <c r="T3">
-        <v>1.27117184283237E-06</v>
+        <v>3.673627885069789E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N4">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O4">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P4">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q4">
-        <v>127.7005410654558</v>
+        <v>537.0814582075702</v>
       </c>
       <c r="R4">
-        <v>127.7005410654558</v>
+        <v>4833.733123868132</v>
       </c>
       <c r="S4">
-        <v>5.795928526254402E-05</v>
+        <v>0.0001813043362136997</v>
       </c>
       <c r="T4">
-        <v>5.795928526254402E-05</v>
+        <v>0.0001813043362136997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N5">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O5">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P5">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q5">
-        <v>48.75470504849511</v>
+        <v>242.9367399695659</v>
       </c>
       <c r="R5">
-        <v>48.75470504849511</v>
+        <v>2186.430659726093</v>
       </c>
       <c r="S5">
-        <v>2.212823715718245E-05</v>
+        <v>8.2008946145893E-05</v>
       </c>
       <c r="T5">
-        <v>2.212823715718245E-05</v>
+        <v>8.2008946145893E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N6">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O6">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P6">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q6">
-        <v>1735602.321942611</v>
+        <v>2408658.578745035</v>
       </c>
       <c r="R6">
-        <v>1735602.321942611</v>
+        <v>21677927.20870532</v>
       </c>
       <c r="S6">
-        <v>0.7877356606362668</v>
+        <v>0.8130987173569989</v>
       </c>
       <c r="T6">
-        <v>0.7877356606362668</v>
+        <v>0.8130987173569989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N7">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O7">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P7">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q7">
-        <v>6771.012773550334</v>
+        <v>6896.323002077142</v>
       </c>
       <c r="R7">
-        <v>6771.012773550334</v>
+        <v>62066.90701869428</v>
       </c>
       <c r="S7">
-        <v>0.003073151120459056</v>
+        <v>0.002328014205479494</v>
       </c>
       <c r="T7">
-        <v>0.003073151120459056</v>
+        <v>0.002328014205479494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N8">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O8">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P8">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q8">
-        <v>308725.4198331743</v>
+        <v>340353.814627883</v>
       </c>
       <c r="R8">
-        <v>308725.4198331743</v>
+        <v>3063184.331650947</v>
       </c>
       <c r="S8">
-        <v>0.1401208211540615</v>
+        <v>0.1148943451610654</v>
       </c>
       <c r="T8">
-        <v>0.1401208211540615</v>
+        <v>0.1148943451610654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N9">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O9">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P9">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q9">
-        <v>117868.0736930009</v>
+        <v>153951.406994855</v>
       </c>
       <c r="R9">
-        <v>117868.0736930009</v>
+        <v>1385562.662953695</v>
       </c>
       <c r="S9">
-        <v>0.05349663556255047</v>
+        <v>0.05196987761878739</v>
       </c>
       <c r="T9">
-        <v>0.05349663556255047</v>
+        <v>0.0519698776187874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H10">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N10">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O10">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P10">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q10">
-        <v>298.1646860802482</v>
+        <v>530.8302668585601</v>
       </c>
       <c r="R10">
-        <v>298.1646860802482</v>
+        <v>4777.472401727042</v>
       </c>
       <c r="S10">
-        <v>0.0001353276341005009</v>
+        <v>0.0001791941012004495</v>
       </c>
       <c r="T10">
-        <v>0.0001353276341005009</v>
+        <v>0.0001791941012004495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H11">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N11">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O11">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P11">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q11">
-        <v>1.163213987759197</v>
+        <v>1.519840550188222</v>
       </c>
       <c r="R11">
-        <v>1.163213987759197</v>
+        <v>13.678564951694</v>
       </c>
       <c r="S11">
-        <v>5.279464814746519E-07</v>
+        <v>5.130575220789772E-07</v>
       </c>
       <c r="T11">
-        <v>5.279464814746519E-07</v>
+        <v>5.130575220789772E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H12">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N12">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O12">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P12">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q12">
-        <v>53.03692944275458</v>
+        <v>75.00859932559689</v>
       </c>
       <c r="R12">
-        <v>53.03692944275458</v>
+        <v>675.077393930372</v>
       </c>
       <c r="S12">
-        <v>2.40718050007822E-05</v>
+        <v>2.532089705057522E-05</v>
       </c>
       <c r="T12">
-        <v>2.40718050007822E-05</v>
+        <v>2.532089705057523E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H13">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N13">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O13">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P13">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q13">
-        <v>20.24893418684839</v>
+        <v>33.92845593787256</v>
       </c>
       <c r="R13">
-        <v>20.24893418684839</v>
+        <v>305.356103440853</v>
       </c>
       <c r="S13">
-        <v>9.190358498140296E-06</v>
+        <v>1.145333931858502E-05</v>
       </c>
       <c r="T13">
-        <v>9.190358498140296E-06</v>
+        <v>1.145333931858502E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H14">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N14">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O14">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P14">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q14">
-        <v>26441.34344843553</v>
+        <v>39092.32739011015</v>
       </c>
       <c r="R14">
-        <v>26441.34344843553</v>
+        <v>351830.9465109914</v>
       </c>
       <c r="S14">
-        <v>0.01200089956445248</v>
+        <v>0.01319652421471856</v>
       </c>
       <c r="T14">
-        <v>0.01200089956445248</v>
+        <v>0.01319652421471856</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H15">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N15">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O15">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P15">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q15">
-        <v>103.1542029966865</v>
+        <v>111.92674585105</v>
       </c>
       <c r="R15">
-        <v>103.1542029966865</v>
+        <v>1007.34071265945</v>
       </c>
       <c r="S15">
-        <v>4.681846942567598E-05</v>
+        <v>3.778347595317909E-05</v>
       </c>
       <c r="T15">
-        <v>4.681846942567598E-05</v>
+        <v>3.778347595317908E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H16">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N16">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O16">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P16">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q16">
-        <v>4703.33252834939</v>
+        <v>5523.913960789901</v>
       </c>
       <c r="R16">
-        <v>4703.33252834939</v>
+        <v>49715.22564710911</v>
       </c>
       <c r="S16">
-        <v>0.002134695667072205</v>
+        <v>0.001864725617795467</v>
       </c>
       <c r="T16">
-        <v>0.002134695667072205</v>
+        <v>0.001864725617795467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H17">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N17">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O17">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P17">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q17">
-        <v>1795.682212866502</v>
+        <v>2498.618466526975</v>
       </c>
       <c r="R17">
-        <v>1795.682212866502</v>
+        <v>22487.56619874278</v>
       </c>
       <c r="S17">
-        <v>0.0008150040457781547</v>
+        <v>0.0008434667695228587</v>
       </c>
       <c r="T17">
-        <v>0.0008150040457781547</v>
+        <v>0.0008434667695228587</v>
       </c>
     </row>
   </sheetData>
